--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626740.864309024</v>
+        <v>1623723.273908088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>135.8442372525923</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.77898559074489</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>186.598214393084</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>144.5425776078359</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>16.97019289371266</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>10.03156470826291</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>276.6117169073102</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>52.76623367726293</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>98.69972393947182</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>70.1675802982076</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>67.48056817366835</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>130.4819462688151</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>50.7513604658678</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>111.2944539985318</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>122.5264189150289</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.5029798430327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>24.98000491003302</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4405054918806</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58.45940450219452</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>60.54139430664144</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2504.904000283471</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>706.1300088622475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>706.1300088622475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>706.1300088622475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>706.1300088622475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>706.1300088622475</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V4" t="n">
-        <v>706.1300088622475</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>706.1300088622475</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>478.1404579642301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>569.6207466258606</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2496.117797904436</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2496.117797904436</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.117797904436</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.054910560866</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641996</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.6310627346886</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C7" t="n">
-        <v>263.6310627346886</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782187</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782187</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782187</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782187</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.6310627346886</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3346612638206</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>744.3346612638206</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>744.3346612638206</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3346612638206</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>333.3487564742131</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303754</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.934501327942</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>153.6396726683158</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>153.6396726683158</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>153.6396726683158</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>153.6396726683158</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>153.6396726683158</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,19 +4969,19 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
         <v>550.5654064942401</v>
@@ -4996,16 +4996,16 @@
         <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>479.6890627586768</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>322.5758555962227</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>695.9829531089974</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>527.0467701810906</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>376.9301307687548</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>229.0170371863617</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>229.0170371863617</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>229.0170371863617</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>877.6314179392372</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>2946.774526574668</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>3254.09465985463</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0685056491545</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1323227212476</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0156833089119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>260.0156833089119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5953,7 +5953,7 @@
         <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,16 +5984,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,25 +6054,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3796.266898524761</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4024.256449422778</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>4024.256449422778</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>3796.266898524761</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>3796.266898524761</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3739.626168222634</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4371.805924143403</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4082.388754106442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4082.388754106442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>3921.274633052874</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,25 +6716,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>3634.504361520963</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>3634.504361520963</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3484.387722108627</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="W34" t="n">
-        <v>245.130185042679</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="X34" t="n">
-        <v>245.130185042679</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>3816.152826351203</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7126,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>1050.134140516355</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>881.1979575884482</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>3782.260917288848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>3492.843747251887</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>3459.155393916675</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,7 +7646,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7658,16 +7658,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142017</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>8.406710013101332</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>99.76625292495949</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.43188209872105</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>98.16246790166832</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>68.53752618340548</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>129.6112244087991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.08167350906209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,16 +24886,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>121.4539577365362</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>113.0824928447104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>90.15606851601783</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>225.9816040299496</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="L2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="O2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336561.6391011394</v>
+        <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
-        <v>253406.2401134048</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.2401134051</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-162623.9913946718</v>
+        <v>-162958.1603618015</v>
       </c>
       <c r="F6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150945</v>
       </c>
       <c r="G6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="H6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150949</v>
       </c>
       <c r="I6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="J6" t="n">
-        <v>186112.8258896313</v>
+        <v>185778.6569225018</v>
       </c>
       <c r="K6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="L6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="M6" t="n">
-        <v>227735.0298483871</v>
+        <v>227400.8608812577</v>
       </c>
       <c r="N6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="O6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="P6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>250.3937014034613</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.343764364169413</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>227.185955627711</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.87313520113565</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>131.6452801244997</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.16839448027409</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>137.1724531134848</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>198.4579338310264</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>57.47116490232332</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>181.9700630256204</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047529</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>96.41974279817546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623723.273908088</v>
+        <v>1699252.943572894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>23.95612279213343</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.8442372525923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.80566276230334</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>83.58354151325305</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>186.598214393084</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.03156470826291</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>81.5633294240825</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>52.76623367726293</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>211.0025011558363</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>98.69972393947182</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>67.48056817366835</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>2.108468374204178</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.4819462688151</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>115.5269768002176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>33.92757820193509</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.2944539985318</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>216.2479102458284</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>29.06239247952515</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>98.30359535938348</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.98000491003302</v>
+        <v>22.12658519496572</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
-        <v>256.111763886877</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.45940450219452</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>95.02525064967628</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>12.78917898910513</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>60.54139430664144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>907.090798542223</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>907.090798542223</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>907.090798542223</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>496.1048937526154</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>78.14108565080227</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>2504.904000283471</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4407,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>2142.160686562295</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>2142.160686562295</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>2142.160686562295</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>2142.160686562295</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="U4" t="n">
-        <v>643.7011644960776</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>2292.27732597463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>980.6066514154681</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>980.6066514154681</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>569.6207466258606</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>64.07587546507446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>616.324863621589</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>616.324863621589</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.9658229629848</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2370.186508584149</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2370.186508584149</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2370.186508584149</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.720750323069</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>153.6396726683158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>153.6396726683158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>153.6396726683158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>153.6396726683158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>153.6396726683158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5367,16 +5369,16 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2032.925401907738</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.465467126435</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.9829531089974</v>
+        <v>565.2896273329885</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0467701810906</v>
+        <v>396.3534444050816</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9301307687548</v>
+        <v>246.2368049927459</v>
       </c>
       <c r="E16" t="n">
-        <v>229.0170371863617</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>229.0170371863617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>229.0170371863617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6314179392372</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L18" t="n">
-        <v>2946.774526574668</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M18" t="n">
-        <v>3254.09465985463</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>3583.957287518663</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1464.645989545847</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.96150133996</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>920.5443313029991</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>3603.918850690061</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929525</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>126.5730434598062</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>533.6251570374463</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>364.6889741095395</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>364.6889741095395</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>364.6889741095395</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>364.6889741095395</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>196.5136524293601</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>715.2736218676861</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3634.504361520963</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="C34" t="n">
-        <v>3634.504361520963</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="D34" t="n">
-        <v>3484.387722108627</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924873</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746783</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J34" t="n">
         <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431054</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436451</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042134</v>
       </c>
       <c r="Q34" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494733</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V34" t="n">
-        <v>4036.945405494733</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.945405494733</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.945405494733</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="Y34" t="n">
-        <v>3816.152826351203</v>
+        <v>4058.523348980394</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>881.1979575884482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>807.0580565471716</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>638.1218736192648</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>488.005234206929</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>340.0921406245359</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>193.2021931266255</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7570,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7606,13 +7608,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.107328986838</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>988.7065213774114</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1696912903951</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>110.1354540755435</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>110.1354540755435</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>110.1354540755435</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>110.1354540755435</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.406710013101332</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498443</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>99.76625292495949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>144.325494272365</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>18.43188209872105</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>252.3097741966423</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.3050033817197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.53752618340548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>5.299650812560827</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>119.851435888011</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>50.61023300815265</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>121.4539577365362</v>
+        <v>124.3073774516035</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851170036</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.15606851601783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>71.4683178137013</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.124649378431</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275936</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852508</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106067</v>
+        <v>-336976.8536106069</v>
       </c>
       <c r="C6" t="n">
         <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618015</v>
+        <v>-162958.1603618016</v>
       </c>
       <c r="F6" t="n">
+        <v>362201.8761150948</v>
+      </c>
+      <c r="G6" t="n">
         <v>362201.8761150945</v>
       </c>
-      <c r="G6" t="n">
-        <v>362201.8761150947</v>
-      </c>
       <c r="H6" t="n">
+        <v>362201.8761150946</v>
+      </c>
+      <c r="I6" t="n">
         <v>362201.8761150949</v>
-      </c>
-      <c r="I6" t="n">
-        <v>362201.8761150948</v>
       </c>
       <c r="J6" t="n">
         <v>185778.6569225018</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150947</v>
+        <v>362201.8761150951</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812577</v>
+        <v>227400.8608812578</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150947</v>
+        <v>362201.876115095</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.876115095</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150947</v>
+        <v>362201.8761150945</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>299.9666499722237</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.3937014034613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>83.3652260794918</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6983327287247</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>227.185955627711</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>35.16839448027409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>65.10186255607536</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>198.4579338310264</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>175.2354375002172</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>57.47116490232332</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.7861061337732</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33412,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.41974279817546</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058686</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,16 +35977,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699252.943572894</v>
+        <v>1692235.928681183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>23.95612279213343</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.6468735142585</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>72.80566276230334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>390.7529822392023</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>131.0452991340061</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>81.5633294240825</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>83.82466560786628</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>103.7424284844662</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>42.41159191917674</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>2.108468374204178</v>
+        <v>98.0080707632675</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>33.92757820193509</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>135.0256963802046</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>143.3158222056514</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>216.2479102458284</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>29.06239247952515</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>98.30359535938348</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>22.12658519496572</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>27.37255160319408</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>95.02525064967628</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>12.78917898910513</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.090798542223</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>907.090798542223</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>907.090798542223</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>907.090798542223</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>496.1048937526154</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>78.14108565080227</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2292.27732597463</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>2292.27732597463</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>2142.160686562295</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>2142.160686562295</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2142.160686562295</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2142.160686562295</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2292.27732597463</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982757</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>929.3036598490722</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4746,22 +4746,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>616.324863621589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>616.324863621589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>389.0166762901907</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>389.0166762901907</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
         <v>99.59950625323012</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>639.3940095917631</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4886,40 +4886,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>76.52029211334911</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,22 +5059,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>286.9470307957484</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>286.9470307957484</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>286.9470307957484</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>286.9470307957484</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>140.0570832978381</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>140.0570832978381</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259882</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.2896273329885</v>
+        <v>665.685973528613</v>
       </c>
       <c r="C16" t="n">
-        <v>396.3534444050816</v>
+        <v>496.7497906007061</v>
       </c>
       <c r="D16" t="n">
-        <v>246.2368049927459</v>
+        <v>346.6331511883703</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765186</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.2896273329885</v>
+        <v>665.685973528613</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.5547804049818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>692.5547804049818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1464.645989545847</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.96150133996</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>920.5443313029991</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>692.5547804049818</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.5547804049818</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3603.918850690061</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C22" t="n">
-        <v>3603.918850690061</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>3603.918850690061</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3603.918850690061</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3603.918850690061</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.918850690061</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>3603.918850690061</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1080.564027901911</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>791.4353891154691</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>536.7509009095822</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>126.5730434598062</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.6251570374463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>364.6889741095395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>364.6889741095395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>364.6889741095395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>364.6889741095395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>196.5136524293601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>1164.055751909234</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.2736218676861</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080544</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571606</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636246</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307618</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526315</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4058.523348980394</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>4058.523348980394</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>4058.523348980394</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924873</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746783</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042134</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803797</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017355</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017355</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980394</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4058.523348980394</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>4058.523348980394</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,7 +7122,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
@@ -7137,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.0580565471716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>638.1218736192648</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>488.005234206929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>340.0921406245359</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>193.2021931266255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.7065213774114</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.2520934878793</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C46" t="n">
-        <v>260.2520934878793</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>110.1354540755435</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>110.1354540755435</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>110.1354540755435</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>110.1354540755435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7848,10 +7848,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.900558318119</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
   </sheetData>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>104.6241510367956</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776749</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776765</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>106.5022364483594</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.325494272365</v>
+        <v>48.42589188330167</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>252.3097741966423</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>22.76906918577129</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>32.2211247184232</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>5.299650812560827</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>119.851435888011</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>50.61023300815265</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>124.3073774516035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>224.7650917206339</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>71.4683178137013</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.124649378431</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>196.3876396860913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275936</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="E2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852507</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852507</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852508</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106069</v>
+        <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
+        <v>252991.0256039379</v>
+      </c>
+      <c r="D6" t="n">
         <v>252991.0256039377</v>
       </c>
-      <c r="D6" t="n">
-        <v>252991.0256039378</v>
-      </c>
       <c r="E6" t="n">
-        <v>-162958.1603618016</v>
+        <v>-163932.7516215226</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553733</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.2848553727</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.284855373</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150949</v>
+        <v>361227.284855373</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225018</v>
+        <v>184804.0656627801</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150951</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812578</v>
+        <v>226426.269621536</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.876115095</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.876115095</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.2848553731</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>299.9666499722237</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.5940952031545</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>83.3652260794918</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>23.03118778159273</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.37041367496548</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>65.10186255607536</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>141.210439850218</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>310.0417415363288</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.2354375002172</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>229.7861061337732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>353.8818559928198</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>570.772884818783</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092011</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692235.928681183</v>
+        <v>1697175.191530214</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>191.6468735142585</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.0714343917597</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>131.0452991340061</v>
+        <v>32.55591946179647</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>103.7424284844662</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.41159191917674</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>98.0080707632675</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>264.0040014850532</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>74.46989343623055</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>135.0256963802046</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>24.40666873704785</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>21.21224374176673</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.5752847581506</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>27.37255160319408</v>
+        <v>134.2724437449546</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.216550257373</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>29.3220157029459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4369,13 +4369,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2509.751412524467</v>
+        <v>2609.235634415588</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.751412524467</v>
+        <v>2609.235634415588</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.751412524467</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.751412524467</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.751412524467</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.645612988121</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1408.645612988121</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>1050.379914381371</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>1050.379914381371</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>639.3940095917631</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.645612988121</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5062,13 +5062,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.9470307957484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>286.9470307957484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>286.9470307957484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>286.9470307957484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>140.0570832978381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>140.0570832978381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240055</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5305,7 +5305,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.685973528613</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C16" t="n">
-        <v>496.7497906007061</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>346.6331511883703</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>1232.245561987142</v>
       </c>
       <c r="X16" t="n">
-        <v>665.685973528613</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.685973528613</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.5850465240057</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514079</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
         <v>392.0201325405893</v>
@@ -7320,16 +7320,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1182.138589748032</v>
+        <v>850.3734855054568</v>
       </c>
       <c r="W40" t="n">
-        <v>892.7214197110717</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="X40" t="n">
-        <v>892.7214197110717</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>412.2823606383756</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.2823606383756</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>104.6241510367956</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5022364483594</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.42589188330167</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>22.51899685153785</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>177.6677498875974</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.76906918577129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>32.2211247184232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,19 +24180,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>122.0272939095213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967691</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>197.372409610328</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>29.91828370522697</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>224.7650917206339</v>
+        <v>117.8651995788734</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.70425972623022</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>196.3876396860913</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
@@ -26346,13 +26346,13 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852507</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039379</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039377</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-163932.7516215226</v>
+        <v>-163055.6194877736</v>
       </c>
       <c r="F6" t="n">
-        <v>361227.2848553733</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="G6" t="n">
-        <v>361227.2848553727</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="H6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="I6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="J6" t="n">
-        <v>184804.0656627801</v>
+        <v>185681.1977965295</v>
       </c>
       <c r="K6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="L6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="M6" t="n">
-        <v>226426.269621536</v>
+        <v>227303.4017552852</v>
       </c>
       <c r="N6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="O6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="P6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>157.5940952031545</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>138.7994718469074</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>141.210439850218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.37041367496548</v>
+        <v>141.8597933471751</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.210439850218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>43.85831389017025</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>310.0417415363288</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.3232009322006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1681237664919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>353.8818559928198</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>777.6835120841789</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
